--- a/data/trans_camb/P22_R3-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P22_R3-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.813855584877129</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-1.198840087709274</v>
+        <v>-1.198840087709273</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.377593493667702</v>
@@ -664,7 +664,7 @@
         <v>3.437366789955187</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-1.498492420350955</v>
+        <v>-1.498492420350957</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.882949764468915</v>
+        <v>-2.024100695693002</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5461363698412127</v>
+        <v>0.263936275827485</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.72606700860733</v>
+        <v>-5.439969368959738</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.842114471576662</v>
+        <v>-5.457979244681206</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.732883859318734</v>
+        <v>-3.354828965825032</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.672711161539056</v>
+        <v>-5.811496677258129</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.08233945399937</v>
+        <v>-1.994540067499422</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2975133201116539</v>
+        <v>0.09785314281420569</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.146415110125895</v>
+        <v>-4.195272130377594</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.286418993269532</v>
+        <v>7.489846999329057</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.662461502770245</v>
+        <v>9.905155271283139</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.015794541460789</v>
+        <v>2.123270583215603</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.581553563487694</v>
+        <v>5.090377331619819</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.688170614292603</v>
+        <v>6.736191857505053</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.465221427652365</v>
+        <v>2.510813061838496</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.664179481897253</v>
+        <v>4.886290198782516</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.840282258839039</v>
+        <v>7.075912048709027</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.281677388889591</v>
+        <v>1.012911255455643</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.1736164231221297</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1147491176578998</v>
+        <v>-0.1147491176578997</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1320961439047665</v>
@@ -769,7 +769,7 @@
         <v>0.3296058672072338</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1436890282284023</v>
+        <v>-0.1436890282284024</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1749471101192671</v>
+        <v>-0.1613087604859883</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.03267027880443395</v>
+        <v>-0.003329838197369517</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4475487969927097</v>
+        <v>-0.4316208111891207</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4443893283959857</v>
+        <v>-0.4245685396701319</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2784106960205666</v>
+        <v>-0.2599310393718704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3993905093937642</v>
+        <v>-0.4220310207104171</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1718930393148965</v>
+        <v>-0.1737240592300471</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.01905702044799172</v>
+        <v>0.001398323961132137</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3437598961195914</v>
+        <v>-0.3523563825578909</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8419360841662199</v>
+        <v>0.927092877194299</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.142354841316416</v>
+        <v>1.205498277822946</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2461919133855365</v>
+        <v>0.257356740195465</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5659085296978631</v>
+        <v>0.6223800195319678</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8410742822319026</v>
+        <v>0.8506257094732393</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3416742148697044</v>
+        <v>0.3481816470747736</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5110888171179675</v>
+        <v>0.5515395960795135</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7436226680685279</v>
+        <v>0.7955646019580884</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1437360791634505</v>
+        <v>0.1110339679773315</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.932969010610581</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.221961558172188</v>
+        <v>-1.221961558172187</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.015008127335604</v>
@@ -869,7 +869,7 @@
         <v>1.738972249672754</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.453656478195854</v>
+        <v>-0.4536564781958533</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.218131672440256</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0263272234551359</v>
+        <v>-0.1535859756873855</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.002820761602211</v>
+        <v>-2.034452280495516</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.609641765345118</v>
+        <v>-5.985544869268225</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.628606123006006</v>
+        <v>-1.803672481586138</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.809154827050605</v>
+        <v>-1.750154938903865</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.608907941565154</v>
+        <v>-3.289628874042553</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8157844309574299</v>
+        <v>0.4314655111337381</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.7696273108757546</v>
+        <v>-1.356889084865136</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.517616274116767</v>
+        <v>-3.535874695306994</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.25010973387317</v>
+        <v>11.28992518902994</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.788997039151087</v>
+        <v>8.261597479117331</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.651923424521549</v>
+        <v>3.027326518093802</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.598283507573452</v>
+        <v>6.971464692906632</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.474025510730809</v>
+        <v>5.315381699206347</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.514314810178431</v>
+        <v>2.417453181870496</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.072016931108676</v>
+        <v>7.820062004519627</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.545036572754512</v>
+        <v>5.29498840127392</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.942696525357947</v>
+        <v>1.920714429938364</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2424428681021075</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1010088629651465</v>
+        <v>-0.1010088629651464</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3709889699650331</v>
@@ -974,7 +974,7 @@
         <v>0.3201672067481552</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.08352400532814991</v>
+        <v>-0.08352400532814978</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.482498763137752</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01592480337910069</v>
+        <v>-0.05033773350019304</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1402355418344012</v>
+        <v>-0.1503374314469541</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3807526426134851</v>
+        <v>-0.3919992076230777</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2764384011706493</v>
+        <v>-0.2752580335680762</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2910866210364359</v>
+        <v>-0.279818794251027</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4714133767713677</v>
+        <v>-0.4804577224429311</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05918225011529</v>
+        <v>0.02385142929100666</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0836858560217599</v>
+        <v>-0.1464605452096624</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3371902139998745</v>
+        <v>-0.3439943123838437</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.199487855422493</v>
+        <v>1.123863020504642</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8234075063911863</v>
+        <v>0.8336077684433371</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3952564402239491</v>
+        <v>0.3299866450093008</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.778225315474719</v>
+        <v>1.816821707374652</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.459488929942349</v>
+        <v>1.384673105541557</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6845712631334276</v>
+        <v>0.6615558520190683</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.051552413766188</v>
+        <v>1.080893679462372</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7774303805718922</v>
+        <v>0.7106659525733579</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2657868975379143</v>
+        <v>0.2805036627298193</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.07081112951749799</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.1488613710830125</v>
+        <v>-0.1488613710830126</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.26221329865456</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6639383321273203</v>
+        <v>-0.649744388473783</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8000593729705127</v>
+        <v>-0.8186901973630195</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9538419611782419</v>
+        <v>-0.9646617504026225</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.285261567185778</v>
+        <v>-4.981829906336067</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.062415473275701</v>
+        <v>-5.948500000776362</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.017015191513981</v>
+        <v>-7.294692047801678</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.229933486497644</v>
+        <v>-1.211744095588324</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.540227822599863</v>
+        <v>-1.559022788143248</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.914638628560322</v>
+        <v>-1.900160358847585</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.406233868540186</v>
+        <v>1.504888922698183</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.351875399107182</v>
+        <v>1.305405522414974</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.636381166069523</v>
+        <v>1.505284256086216</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.344494399527456</v>
+        <v>2.561902850910604</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.006482232058509</v>
+        <v>1.93999676643465</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.3559895146187885</v>
+        <v>6.693042643635041e-05</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.201178236495611</v>
+        <v>1.351034515002502</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8414875095721107</v>
+        <v>0.938548867420819</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3633476354568872</v>
+        <v>0.5146318490889424</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.109564519378505</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2303299592573966</v>
+        <v>-0.2303299592573967</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2895354319063224</v>
@@ -1208,27 +1208,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7512236869805574</v>
-      </c>
-      <c r="D20" s="6" t="inlineStr"/>
+        <v>-0.7486467019836404</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.8098866652133214</v>
+        <v>-0.782580889632956</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8967274336424823</v>
+        <v>-0.8711771047598343</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.9382249972687609</v>
+        <v>-0.9571992211819053</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6142147413109633</v>
+        <v>-0.5705736639497426</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7575819917358136</v>
+        <v>-0.7382137542048804</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.9055833395444506</v>
+        <v>-0.8834211812895112</v>
       </c>
     </row>
     <row r="21">
@@ -1239,27 +1241,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>6.099555653665585</v>
-      </c>
-      <c r="D21" s="6" t="inlineStr"/>
+        <v>7.08949915868225</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>6.794636373857763</v>
+      </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>1.24184660388156</v>
+        <v>1.264519462643856</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.365621324341325</v>
+        <v>1.38376982203095</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.288687234378592</v>
+        <v>0.3090837535000052</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.316817404210936</v>
+        <v>1.540819748875794</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9412334261473836</v>
+        <v>1.241155905601205</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8060434795051339</v>
+        <v>0.9521049611324088</v>
       </c>
     </row>
     <row r="22">
@@ -1280,7 +1284,7 @@
         <v>0.8004716568946582</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2896512427561398</v>
+        <v>0.28965124275614</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.792980216233714</v>
@@ -1298,7 +1302,7 @@
         <v>0.2278837181977829</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.5199734087688791</v>
+        <v>-0.519973408768879</v>
       </c>
     </row>
     <row r="23">
@@ -1309,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.082350245835522</v>
+        <v>-0.9965384102139836</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.08765729574522052</v>
+        <v>-0.03049762195768247</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5012098374209</v>
+        <v>-0.5402216743176459</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.530956483836856</v>
+        <v>-2.50544190805538</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.353404606139685</v>
+        <v>-2.655245397383603</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.340951123720713</v>
+        <v>-3.442655515258715</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.196287974877737</v>
+        <v>-1.159682315092551</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.5802743452385686</v>
+        <v>-0.6664916856629673</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.213514813752284</v>
+        <v>-1.207929342768995</v>
       </c>
     </row>
     <row r="24">
@@ -1344,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2524518442860729</v>
+        <v>0.2747758639776776</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.762386165920333</v>
+        <v>1.799977626461182</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.446637020256417</v>
+        <v>1.541530138578911</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8839720240113899</v>
+        <v>0.9619071541954506</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6883763713479504</v>
+        <v>0.5900532929082104</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.7106477497682804</v>
+        <v>-0.6718298796714882</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3452412535143896</v>
+        <v>0.2891802251988745</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.053198730869185</v>
+        <v>1.055759045178809</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3002026418372342</v>
+        <v>0.2043949272777199</v>
       </c>
     </row>
     <row r="25">
@@ -1385,7 +1389,7 @@
         <v>0.9737847088419274</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3523646948190557</v>
+        <v>0.3523646948190559</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.2891438186105796</v>
@@ -1403,7 +1407,7 @@
         <v>0.1493642120157822</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3408116169252475</v>
+        <v>-0.3408116169252474</v>
       </c>
     </row>
     <row r="26">
@@ -1414,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8237120732464102</v>
+        <v>-0.8319199017686604</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1343606905752668</v>
+        <v>-0.06031036869459563</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5345025494364409</v>
+        <v>-0.5567612056981271</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6890838250762742</v>
+        <v>-0.6906649114627194</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6378103173552091</v>
+        <v>-0.6753545661257748</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8567067033427241</v>
+        <v>-0.8504839808241774</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6017108867443555</v>
+        <v>-0.6236932127221133</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3217651803416416</v>
+        <v>-0.3483291684428256</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6492934032040211</v>
+        <v>-0.6568257361918606</v>
       </c>
     </row>
     <row r="27">
@@ -1449,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6197823425177921</v>
+        <v>0.6952485139884146</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.605050374445784</v>
+        <v>3.569297149299483</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.085660281940293</v>
+        <v>3.160380869501617</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5509577629590018</v>
+        <v>0.5678928961677193</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4642999715966229</v>
+        <v>0.3581298160622301</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3655834622935418</v>
+        <v>-0.293115289630167</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3374426418592796</v>
+        <v>0.2685938144473136</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9387629189382495</v>
+        <v>0.9376957027523345</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3088019888747121</v>
+        <v>0.1763031033465059</v>
       </c>
     </row>
     <row r="28">
@@ -1523,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.423270261052799</v>
+        <v>-4.349728512502747</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.393898395831871</v>
+        <v>-4.700336327589953</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.754385460041998</v>
+        <v>-4.251124337738185</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.415221101597401</v>
+        <v>-4.236019604737548</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.783175802943462</v>
+        <v>-4.880957419724347</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.941331912393627</v>
+        <v>-4.97396395585888</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.485124719422172</v>
+        <v>-3.596413829578165</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.915916048593603</v>
+        <v>-4.035983259957431</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.121854634818449</v>
+        <v>-4.153140177935284</v>
       </c>
     </row>
     <row r="30">
@@ -1558,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.5590651600447255</v>
+        <v>-0.4898651876573635</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.6044207393415975</v>
+        <v>-0.8446996913011731</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.7364278695344415</v>
+        <v>-0.6721031665660482</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.4873016075096309</v>
+        <v>-0.5392577674851888</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.246810872514833</v>
+        <v>-1.302983852053029</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.525255981868602</v>
+        <v>-1.681635893892852</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.8686612724312317</v>
+        <v>-0.8636821769738371</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.406297490532397</v>
+        <v>-1.447076835211964</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.548232965769415</v>
+        <v>-1.678612427925926</v>
       </c>
     </row>
     <row r="31">
@@ -1628,7 +1632,7 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9470637019330761</v>
+        <v>-0.9519445125702455</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>-1</v>
@@ -1637,22 +1641,22 @@
         <v>-1</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.8484656326231458</v>
+        <v>-0.8723321582396405</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.960785530643964</v>
+        <v>-0.9620095456752874</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.9680269167572838</v>
+        <v>-0.9627924771158282</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.8361938643436191</v>
+        <v>-0.8368924484092635</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.9364730364445369</v>
+        <v>-0.9256111066759577</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.9473486445838464</v>
+        <v>-0.9471342189232316</v>
       </c>
     </row>
     <row r="33">
@@ -1663,31 +1667,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2067661853379382</v>
+        <v>-0.06941853464798053</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1848170291099543</v>
+        <v>-0.3631428679187376</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.04432736739417878</v>
+        <v>-0.2127502165066597</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.1173643145131883</v>
+        <v>-0.2027960751771975</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.462490099961675</v>
+        <v>-0.4411077523993737</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.6722050025708259</v>
+        <v>-0.6843764315310649</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.3397567523357208</v>
+        <v>-0.324755791238838</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.5861045793094752</v>
+        <v>-0.5585415155141384</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.6174887830404976</v>
+        <v>-0.6276388704350183</v>
       </c>
     </row>
     <row r="34">
@@ -1737,31 +1741,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.03822718160818</v>
+        <v>-2.190696114929866</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.927817385346968</v>
+        <v>-3.655461816525071</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.486655407870494</v>
+        <v>-3.472940315177357</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.491554126489829</v>
+        <v>-2.214494810479965</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.85712054600542</v>
+        <v>-2.716447347288921</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.074095979564322</v>
+        <v>-3.037745858187665</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.778601492878971</v>
+        <v>-1.916008708048659</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.471871600037402</v>
+        <v>-2.288736419331231</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.55838522300402</v>
+        <v>-2.639161126049876</v>
       </c>
     </row>
     <row r="36">
@@ -1772,31 +1776,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.169056924565322</v>
+        <v>4.97460737466056</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.415102259625321</v>
+        <v>2.258749331799859</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.739681722873677</v>
+        <v>6.141305772583074</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.6416112099185323</v>
+        <v>0.9558250497105047</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.1848850816437493</v>
+        <v>0.3142689936517009</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.1646657226969621</v>
+        <v>-0.236207333325078</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.9611903993491058</v>
+        <v>0.8793611329814368</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.1713427463520806</v>
+        <v>0.237080622041442</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.4921652745734051</v>
+        <v>0.343962516721996</v>
       </c>
     </row>
     <row r="37">
@@ -1822,7 +1826,7 @@
         <v>-0.3344386494117079</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.4361787179198944</v>
+        <v>-0.4361787179198943</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.1225447165121092</v>
@@ -1842,31 +1846,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4438670015780994</v>
+        <v>-0.4329401708810973</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6975762909009416</v>
+        <v>-0.674642099967266</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7556299107821433</v>
+        <v>-0.7741990758336881</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.5329969148472791</v>
+        <v>-0.4970282697531699</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6269437576866163</v>
+        <v>-0.607384463233915</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.658446108352403</v>
+        <v>-0.6540631094980834</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4065002215580651</v>
+        <v>-0.4236568805404266</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5471245071134954</v>
+        <v>-0.527651250611518</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5948445300512175</v>
+        <v>-0.5895220186746353</v>
       </c>
     </row>
     <row r="39">
@@ -1877,31 +1881,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.016545014737894</v>
+        <v>1.979319862965582</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.048593523626021</v>
+        <v>1.090025667483737</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.665572897557531</v>
+        <v>2.306803874206399</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2482571439367127</v>
+        <v>0.3283071129633062</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.04641197393357948</v>
+        <v>0.07700483342715918</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.03968804118536298</v>
+        <v>-0.07245567401641051</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3249961563498285</v>
+        <v>0.2654418060889729</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.06541770090123177</v>
+        <v>0.09369113300891048</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1709852912647632</v>
+        <v>0.1449312366166662</v>
       </c>
     </row>
     <row r="40">
@@ -1931,7 +1935,7 @@
         <v>-0.8906896351551168</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-1.642856925904726</v>
+        <v>-1.642856925904727</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.1100541053820833</v>
@@ -1940,7 +1944,7 @@
         <v>-0.1169220465720495</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-0.9490358238494506</v>
+        <v>-0.94903582384945</v>
       </c>
     </row>
     <row r="41">
@@ -1951,31 +1955,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.4521073322822335</v>
+        <v>-0.4010666925588867</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.3373948673946576</v>
+        <v>-0.2943645681274343</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.208087628476775</v>
+        <v>-1.141016053014652</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.846684198338253</v>
+        <v>-1.930983654578427</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.813340493797473</v>
+        <v>-1.857508376904419</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.498834461570657</v>
+        <v>-2.446002568167768</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.8481957732107785</v>
+        <v>-0.9028186600770366</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.7563141259222299</v>
+        <v>-0.8504034582297123</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.570856343446452</v>
+        <v>-1.632798484141254</v>
       </c>
     </row>
     <row r="42">
@@ -1986,31 +1990,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.819709604099147</v>
+        <v>1.656109040760144</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.695668901482587</v>
+        <v>1.752631145628791</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.8069990145091634</v>
+        <v>0.8425202851554767</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.09980569254167482</v>
+        <v>0.1087353987944916</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.09915290595488194</v>
+        <v>0.03120956509017892</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.8251986807776801</v>
+        <v>-0.7930114274153164</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.6129255713863369</v>
+        <v>0.5992948255247665</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.6254243363257455</v>
+        <v>0.6062620385243382</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-0.3178854283148715</v>
+        <v>-0.3253744632131301</v>
       </c>
     </row>
     <row r="43">
@@ -2036,7 +2040,7 @@
         <v>-0.2058073937466711</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.3796070919363919</v>
+        <v>-0.379607091936392</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.02662054691135262</v>
@@ -2045,7 +2049,7 @@
         <v>-0.0282818057076253</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.2295584756391232</v>
+        <v>-0.2295584756391231</v>
       </c>
     </row>
     <row r="44">
@@ -2056,31 +2060,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.100760937748595</v>
+        <v>-0.0854324153192436</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.07804068108017845</v>
+        <v>-0.0771314576286292</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2703413732614772</v>
+        <v>-0.2641369938650239</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3766661971124611</v>
+        <v>-0.3871829136563648</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3847416001132503</v>
+        <v>-0.3748909445615132</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.5184078099235732</v>
+        <v>-0.5053594368503302</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1890905014007762</v>
+        <v>-0.2063373103263203</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1643083079952627</v>
+        <v>-0.1832224400296967</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3457917343650032</v>
+        <v>-0.3568086074188631</v>
       </c>
     </row>
     <row r="45">
@@ -2091,31 +2095,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5216242958401621</v>
+        <v>0.4777510481528078</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5046138058994102</v>
+        <v>0.4971314566814037</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2421798443725963</v>
+        <v>0.2524054212386759</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.03540041894765853</v>
+        <v>0.02784765101071418</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.02103870144312656</v>
+        <v>0.01248986041205284</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.2185954900915822</v>
+        <v>-0.2068785747619834</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1562399258211694</v>
+        <v>0.1576792040288179</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1715540145640775</v>
+        <v>0.1595630422460811</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.08278475312096921</v>
+        <v>-0.08444292097704928</v>
       </c>
     </row>
     <row r="46">
